--- a/data/doc/保险属性信息.xlsx
+++ b/data/doc/保险属性信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>保险名</t>
   </si>
@@ -38,6 +38,57 @@
   </si>
   <si>
     <t>适用职业</t>
+  </si>
+  <si>
+    <t>缴费方式</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>驾驶人意外险</t>
+  </si>
+  <si>
+    <t>意外险</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>中年|老年</t>
+  </si>
+  <si>
+    <t>电子|纸质</t>
+  </si>
+  <si>
+    <t>大陆|港澳台|海外</t>
+  </si>
+  <si>
+    <t>骨折|脑出血</t>
+  </si>
+  <si>
+    <t>室外工作</t>
+  </si>
+  <si>
+    <t>年缴|月缴|一次性</t>
+  </si>
+  <si>
+    <t>开车|驾驶|意外|装车|车祸</t>
+  </si>
+  <si>
+    <t>雇主责任险</t>
+  </si>
+  <si>
+    <t>青年|中年|老年</t>
+  </si>
+  <si>
+    <t>大陆</t>
+  </si>
+  <si>
+    <t>室外工作|室内工作|高危工作</t>
+  </si>
+  <si>
+    <t>雇主</t>
   </si>
   <si>
     <r>
@@ -52,6 +103,16 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 没有的话填写0。</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -62,28 +123,244 @@
     </r>
   </si>
   <si>
+    <t>航空意外险</t>
+  </si>
+  <si>
+    <t>幼儿|青年|中年|老年</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>航空|飞机</t>
+  </si>
+  <si>
+    <t>职场综合医疗保险</t>
+  </si>
+  <si>
+    <t>医疗险</t>
+  </si>
+  <si>
+    <t>青年|中年</t>
+  </si>
+  <si>
+    <t>颈椎病|骨折|痛风</t>
+  </si>
+  <si>
+    <t>职业病|职场|职场医疗</t>
+  </si>
+  <si>
+    <t>短期综合意外险</t>
+  </si>
+  <si>
+    <t>大陆|海外</t>
+  </si>
+  <si>
+    <t>骨折|非典型肺炎|腹痛</t>
+  </si>
+  <si>
+    <t>短期意外|短期|意外</t>
+  </si>
+  <si>
+    <t>旅行健康保险</t>
+  </si>
+  <si>
+    <t>旅行|旅行健康</t>
+  </si>
+  <si>
+    <t>成人重大疾病保险</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>纸质</t>
+  </si>
+  <si>
+    <t>大部分疾病</t>
+  </si>
+  <si>
+    <t>重疾|重疾险|成人</t>
+  </si>
+  <si>
+    <t>平安道路交通意外保险</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>马路|道路|撞车|交通意外</t>
+  </si>
+  <si>
+    <t>平安稳赢今生年金保险</t>
+  </si>
+  <si>
+    <t>年金险</t>
+  </si>
+  <si>
+    <t>年缴|月缴</t>
+  </si>
+  <si>
+    <t>收益|年金</t>
+  </si>
+  <si>
+    <t>平安英才宝贝教育年金保险（分红型）</t>
+  </si>
+  <si>
+    <t>分红型</t>
+  </si>
+  <si>
+    <t>幼儿|青年</t>
+  </si>
+  <si>
+    <t>分红|收益|孩子|教育</t>
+  </si>
+  <si>
+    <t>平安行·境外留学保险</t>
+  </si>
+  <si>
+    <t>境外|外国|留学</t>
+  </si>
+  <si>
+    <t>平安行·境外工作保险</t>
+  </si>
+  <si>
+    <t>境外|境外工作</t>
+  </si>
+  <si>
+    <t>平安手机碎屏险（苹果版）</t>
+  </si>
+  <si>
+    <t>屏幕|碎屏|苹果手机|苹果|apple</t>
+  </si>
+  <si>
+    <t>平安手机碎屏险(安卓版)</t>
+  </si>
+  <si>
+    <t>屏幕|碎屏|安卓手机|安卓</t>
+  </si>
+  <si>
+    <t>平安个人意外伤害险</t>
+  </si>
+  <si>
+    <t>室外工作|室内工作</t>
+  </si>
+  <si>
+    <t>个人意外|意外</t>
+  </si>
+  <si>
     <t>平安e生保</t>
   </si>
   <si>
-    <t>意外险|重疾险</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>幼儿|青年|中年|老年</t>
-  </si>
-  <si>
-    <t>电子|纸质</t>
-  </si>
-  <si>
-    <t>大陆|港澳台|海外</t>
-  </si>
-  <si>
-    <t>原位癌|发烧</t>
-  </si>
-  <si>
-    <t>室外工作|室内工作|高危工作</t>
+    <t>医疗|门诊报销|便宜|性价比</t>
+  </si>
+  <si>
+    <t>家庭出行综合保险</t>
+  </si>
+  <si>
+    <t>家庭|全家|出行|旅行</t>
+  </si>
+  <si>
+    <t>女性关爱保险</t>
+  </si>
+  <si>
+    <t>大陆|港澳台</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>平安幸福定期寿险</t>
+  </si>
+  <si>
+    <t>定期寿险</t>
+  </si>
+  <si>
+    <t>定期寿险|身故|意外死亡</t>
+  </si>
+  <si>
+    <t>团体境外旅游意外险</t>
+  </si>
+  <si>
+    <t>港澳台|海外</t>
+  </si>
+  <si>
+    <t>团体|跟团|境外旅游</t>
+  </si>
+  <si>
+    <t>团体国内旅游保险</t>
+  </si>
+  <si>
+    <t>国内|旅游</t>
+  </si>
+  <si>
+    <t>团体交通意外险</t>
+  </si>
+  <si>
+    <t>一次性</t>
+  </si>
+  <si>
+    <t>团体|交通意外</t>
+  </si>
+  <si>
+    <t>全球交通意外保险</t>
+  </si>
+  <si>
+    <t>全球|全球交通意外</t>
+  </si>
+  <si>
+    <t>儿童重大疾病保险</t>
+  </si>
+  <si>
+    <t>重疾险</t>
+  </si>
+  <si>
+    <t>幼儿</t>
+  </si>
+  <si>
+    <t>重大疾病</t>
+  </si>
+  <si>
+    <t>儿童|孩子|重疾</t>
+  </si>
+  <si>
+    <t>儿童综合医疗保险</t>
+  </si>
+  <si>
+    <t>儿童|孩子|综合</t>
+  </si>
+  <si>
+    <t>住院医疗保险</t>
+  </si>
+  <si>
+    <t>住院|医疗</t>
+  </si>
+  <si>
+    <t>企业团体综合意外险</t>
+  </si>
+  <si>
+    <t>月缴</t>
+  </si>
+  <si>
+    <t>企业团体|意外险</t>
+  </si>
+  <si>
+    <t>中老年人综合医疗保险</t>
+  </si>
+  <si>
+    <t>中老年|医疗</t>
+  </si>
+  <si>
+    <t>一年期重大疾病保险</t>
+  </si>
+  <si>
+    <t>一年|重疾</t>
+  </si>
+  <si>
+    <t>一年期意外险</t>
+  </si>
+  <si>
+    <t>一年|意外</t>
   </si>
 </sst>
 </file>
@@ -91,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -109,29 +386,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -157,19 +411,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,24 +434,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,8 +464,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +481,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +511,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +553,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,31 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,133 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,8 +759,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,8 +768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,36 +785,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,162 +823,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1059,113 +1338,1045 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="21.2767857142857" customWidth="1"/>
-    <col min="5" max="5" width="12.9375" customWidth="1"/>
-    <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
-    <col min="7" max="7" width="13.2410714285714" customWidth="1"/>
-    <col min="8" max="8" width="31.0892857142857" customWidth="1"/>
-    <col min="10" max="10" width="15.9196428571429" customWidth="1"/>
+    <col min="1" max="1" width="20.6875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="22.4732142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.9375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.0892857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.2410714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.0892857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.4910714285714" customWidth="1"/>
+    <col min="10" max="10" width="26.0357142857143" customWidth="1"/>
+    <col min="13" max="13" width="31.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" ht="18" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="10:13">
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="10:13">
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="10:13">
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="10:13">
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="136" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" ht="18" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" ht="36" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" ht="36" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" ht="18" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" ht="18" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" ht="36" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" ht="36" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" ht="36" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" ht="18" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:M6"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/data/doc/保险属性信息.xlsx
+++ b/data/doc/保险属性信息.xlsx
@@ -321,13 +321,13 @@
     <t>重大疾病</t>
   </si>
   <si>
-    <t>儿童|孩子|重疾</t>
+    <t>儿童|孩子|重疾|少儿</t>
   </si>
   <si>
     <t>儿童综合医疗保险</t>
   </si>
   <si>
-    <t>儿童|孩子|综合</t>
+    <t>儿童|孩子|综合|少儿</t>
   </si>
   <si>
     <t>住院医疗保险</t>
@@ -368,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -389,30 +389,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,8 +417,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,11 +449,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,24 +502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,28 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -559,6 +559,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,19 +583,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,31 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,13 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,61 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,8 +759,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,8 +768,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,6 +794,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,30 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -858,148 +858,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1422,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="136" spans="1:16">
+    <row r="3" ht="64" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>

--- a/data/doc/保险属性信息.xlsx
+++ b/data/doc/保险属性信息.xlsx
@@ -16,6 +16,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
+    <t xml:space="preserve">说明：
+1.每一项如果有多个，可用竖线分开。
+2. 没有的话填写0。
+3. 业务老师觉得还有更好的属性，也可以增加。
+3. 此文件内容仅为示例
+</t>
+  </si>
+  <si>
     <t>保险名</t>
   </si>
   <si>
@@ -89,38 +97,6 @@
   </si>
   <si>
     <t>雇主</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明：
-1.每一项如果有多个，可用竖线分开。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1. 没有的话填写0。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>航空意外险</t>
@@ -373,7 +349,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,8 +378,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,38 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -457,17 +487,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,63 +502,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -559,169 +529,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,46 +739,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,11 +761,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,147 +782,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,11 +980,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1338,10 +1308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1358,103 +1328,76 @@
     <col min="13" max="13" width="31.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:10">
+    <row r="1" ht="122" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="18" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="18" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" ht="18" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="64" spans="1:16">
-      <c r="A3" s="1" t="s">
+      <c r="J3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1462,70 +1405,70 @@
     </row>
     <row r="4" ht="18" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" ht="36" spans="1:16">
+    <row r="5" ht="18" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1534,70 +1477,70 @@
     </row>
     <row r="6" ht="36" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" ht="18" spans="1:16">
+    <row r="7" ht="36" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1606,122 +1549,122 @@
     </row>
     <row r="8" ht="18" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" ht="36" spans="1:10">
+    <row r="9" ht="18" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="36" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="36" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1733,114 +1676,114 @@
         <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="36" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
+      <c r="H12" s="1">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="36" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
@@ -1849,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1858,50 +1801,50 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" ht="18" spans="1:10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" ht="36" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>66</v>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>47</v>
@@ -1910,30 +1853,30 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>47</v>
@@ -1942,283 +1885,283 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" ht="36" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" ht="18" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I21" t="s">
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -2227,156 +2170,191 @@
         <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
+      <c r="H27" s="1">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" ht="36" spans="1:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" ht="36" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="30" ht="18" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
